--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1875" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13125" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>
@@ -232,7 +232,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
     <col min="9" max="9" width="13" customWidth="true"/>
-    <col min="10" max="10" width="7.5703125" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="20.42578125" customWidth="true"/>
     <col min="12" max="12" width="13.42578125" customWidth="true"/>
     <col min="13" max="13" width="14.85546875" customWidth="true"/>
@@ -445,7 +445,7 @@
         <v>34</v>
       </c>
       <c r="J3" s="0">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="K3" s="0">
         <v>11</v>
@@ -528,7 +528,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K4" s="0">
         <v>7</v>
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="0">
-        <v>263</v>
+        <v>261.5</v>
       </c>
       <c r="K5" s="0">
         <v>5</v>
@@ -694,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K6" s="0">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="0">
-        <v>263</v>
+        <v>260.5</v>
       </c>
       <c r="K7" s="0">
         <v>6</v>
@@ -943,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="0">
-        <v>260</v>
+        <v>259.19999999999999</v>
       </c>
       <c r="K9" s="0">
         <v>11</v>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="0">
-        <v>260</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="K10" s="0">
         <v>3</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>260</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="K11" s="0">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="0">
-        <v>260</v>
+        <v>256.80000000000001</v>
       </c>
       <c r="K12" s="0">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K14" s="0">
         <v>4</v>
@@ -1441,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K15" s="0">
         <v>6</v>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K16" s="0">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K17" s="0">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="0">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>248</v>
+        <v>235.16666666666666</v>
       </c>
       <c r="K19" s="0">
         <v>16</v>
@@ -1801,7 +1801,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T19" s="0">
-        <v>5.4504032258064523</v>
+        <v>5.7519148936170224</v>
       </c>
       <c r="U19" s="0">
         <v>21.627200000000002</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>235</v>
+        <v>235.33333333333334</v>
       </c>
       <c r="K20" s="0">
         <v>14</v>
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="J21" s="0">
-        <v>235</v>
+        <v>235.5</v>
       </c>
       <c r="K21" s="0">
         <v>21</v>
@@ -2020,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="0">
-        <v>235</v>
+        <v>235.66666666666666</v>
       </c>
       <c r="K22" s="0">
         <v>16</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>235</v>
+        <v>235.83333333333334</v>
       </c>
       <c r="K23" s="0">
         <v>13</v>
@@ -2269,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="0">
-        <v>236</v>
+        <v>237.19999999999999</v>
       </c>
       <c r="K25" s="0">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="0">
-        <v>236</v>
+        <v>238.40000000000001</v>
       </c>
       <c r="K26" s="0">
         <v>14</v>
@@ -2435,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="0">
-        <v>236</v>
+        <v>239.59999999999999</v>
       </c>
       <c r="K27" s="0">
         <v>3</v>
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="0">
-        <v>236</v>
+        <v>240.80000000000001</v>
       </c>
       <c r="K28" s="0">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="J30" s="0">
-        <v>242</v>
+        <v>243.40000000000001</v>
       </c>
       <c r="K30" s="0">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="0">
-        <v>242</v>
+        <v>244.80000000000001</v>
       </c>
       <c r="K31" s="0">
         <v>9</v>
@@ -2850,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="0">
-        <v>242</v>
+        <v>246.19999999999999</v>
       </c>
       <c r="K32" s="0">
         <v>11</v>
@@ -2933,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="0">
-        <v>242</v>
+        <v>247.59999999999999</v>
       </c>
       <c r="K33" s="0">
         <v>8</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="0">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="0">
-        <v>238</v>
+        <v>242.5</v>
       </c>
       <c r="K35" s="0">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K36" s="0">
         <v>19</v>
@@ -3263,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="0">
-        <v>238</v>
+        <v>251.5</v>
       </c>
       <c r="K37" s="0">
         <v>48</v>
@@ -3346,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="K38" s="0">
         <v>97</v>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="0">
-        <v>238</v>
+        <v>260.5</v>
       </c>
       <c r="K39" s="0">
         <v>85</v>
@@ -3595,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K41" s="0">
         <v>28</v>
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="J42" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K42" s="0">
         <v>31</v>
@@ -3761,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K43" s="0">
         <v>23</v>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K44" s="0">
         <v>15</v>
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="0">
-        <v>275</v>
+        <v>276.19999999999999</v>
       </c>
       <c r="K46" s="0">
         <v>17</v>
@@ -4093,7 +4093,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="0">
-        <v>275</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="K47" s="0">
         <v>17</v>
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="0">
-        <v>275</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K48" s="0">
         <v>24</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>275</v>
+        <v>279.80000000000001</v>
       </c>
       <c r="K49" s="0">
         <v>21</v>
@@ -4391,7 +4391,7 @@
         <v>49</v>
       </c>
       <c r="AA50" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
@@ -4423,7 +4423,7 @@
         <v>8</v>
       </c>
       <c r="J51" s="0">
-        <v>416</v>
+        <v>418.83333333333331</v>
       </c>
       <c r="K51" s="0">
         <v>16</v>
@@ -4474,7 +4474,7 @@
         <v>49</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -4506,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="J52" s="0">
-        <v>416</v>
+        <v>424.5</v>
       </c>
       <c r="K52" s="0">
         <v>13</v>
@@ -4557,7 +4557,7 @@
         <v>49</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -4589,7 +4589,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="0">
-        <v>416</v>
+        <v>427.33333333333331</v>
       </c>
       <c r="K53" s="0">
         <v>13</v>
@@ -4640,7 +4640,7 @@
         <v>49</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="0">
-        <v>416</v>
+        <v>430.16666666666669</v>
       </c>
       <c r="K54" s="0">
         <v>12</v>
@@ -4723,7 +4723,7 @@
         <v>49</v>
       </c>
       <c r="AA54" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -4806,7 +4806,7 @@
         <v>49</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -4838,7 +4838,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="0">
-        <v>433</v>
+        <v>433.39999999999998</v>
       </c>
       <c r="K56" s="0">
         <v>11</v>
@@ -4889,7 +4889,7 @@
         <v>49</v>
       </c>
       <c r="AA56" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -4921,7 +4921,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="0">
-        <v>433</v>
+        <v>433.80000000000001</v>
       </c>
       <c r="K57" s="0">
         <v>11</v>
@@ -4972,7 +4972,7 @@
         <v>49</v>
       </c>
       <c r="AA57" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -5004,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="0">
-        <v>433</v>
+        <v>434.19999999999999</v>
       </c>
       <c r="K58" s="0">
         <v>21</v>
@@ -5055,7 +5055,7 @@
         <v>49</v>
       </c>
       <c r="AA58" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -5087,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="0">
-        <v>433</v>
+        <v>434.60000000000002</v>
       </c>
       <c r="K59" s="0">
         <v>26</v>
@@ -5138,7 +5138,7 @@
         <v>49</v>
       </c>
       <c r="AA59" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -5221,7 +5221,7 @@
         <v>49</v>
       </c>
       <c r="AA60" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="0">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K61" s="0">
         <v>20</v>
@@ -5304,7 +5304,7 @@
         <v>49</v>
       </c>
       <c r="AA61" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -5336,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="J62" s="0">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K62" s="0">
         <v>24</v>
@@ -5387,7 +5387,7 @@
         <v>49</v>
       </c>
       <c r="AA62" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -5419,7 +5419,7 @@
         <v>9</v>
       </c>
       <c r="J63" s="0">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K63" s="0">
         <v>28</v>
@@ -5470,7 +5470,7 @@
         <v>49</v>
       </c>
       <c r="AA63" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64">
@@ -5502,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="0">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="K64" s="0">
         <v>21</v>
@@ -5553,7 +5553,7 @@
         <v>49</v>
       </c>
       <c r="AA64" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
@@ -5666,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="0">
-        <v>422</v>
+        <v>425.5</v>
       </c>
       <c r="K66" s="0">
         <v>18</v>
@@ -5749,7 +5749,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="0">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K67" s="0">
         <v>7</v>
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="0">
-        <v>422</v>
+        <v>432.5</v>
       </c>
       <c r="K68" s="0">
         <v>13</v>
@@ -5915,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K69" s="0">
         <v>10</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="0">
-        <v>422</v>
+        <v>439.5</v>
       </c>
       <c r="K70" s="0">
         <v>5</v>
@@ -6164,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="0">
-        <v>443</v>
+        <v>446.39999999999998</v>
       </c>
       <c r="K72" s="0">
         <v>6</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="0">
-        <v>443</v>
+        <v>449.80000000000001</v>
       </c>
       <c r="K73" s="0">
         <v>8</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="0">
-        <v>443</v>
+        <v>453.19999999999999</v>
       </c>
       <c r="K74" s="0">
         <v>3</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="0">
-        <v>443</v>
+        <v>456.60000000000002</v>
       </c>
       <c r="K75" s="0">
         <v>5</v>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K77" s="0">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K78" s="0">
         <v>4</v>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K79" s="0">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K80" s="0">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>8</v>
       </c>
       <c r="J82" s="0">
-        <v>430</v>
+        <v>430.83333333333331</v>
       </c>
       <c r="K82" s="0">
         <v>23</v>
@@ -7075,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="0">
-        <v>430</v>
+        <v>431.66666666666669</v>
       </c>
       <c r="K83" s="0">
         <v>19</v>
@@ -7158,7 +7158,7 @@
         <v>9</v>
       </c>
       <c r="J84" s="0">
-        <v>430</v>
+        <v>432.5</v>
       </c>
       <c r="K84" s="0">
         <v>39</v>
@@ -7241,7 +7241,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="0">
-        <v>430</v>
+        <v>433.33333333333331</v>
       </c>
       <c r="K85" s="0">
         <v>24</v>
@@ -7324,7 +7324,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="0">
-        <v>430</v>
+        <v>434.16666666666669</v>
       </c>
       <c r="K86" s="0">
         <v>20</v>
@@ -7490,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="J88" s="0">
-        <v>435</v>
+        <v>440.19999999999999</v>
       </c>
       <c r="K88" s="0">
         <v>12</v>
@@ -7573,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="J89" s="0">
-        <v>435</v>
+        <v>445.39999999999998</v>
       </c>
       <c r="K89" s="0">
         <v>18</v>
@@ -7656,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="J90" s="0">
-        <v>435</v>
+        <v>450.60000000000002</v>
       </c>
       <c r="K90" s="0">
         <v>20</v>
@@ -7739,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="0">
-        <v>435</v>
+        <v>455.80000000000001</v>
       </c>
       <c r="K91" s="0">
         <v>14</v>
@@ -7905,7 +7905,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="0">
-        <v>461</v>
+        <v>463.60000000000002</v>
       </c>
       <c r="K93" s="0">
         <v>21</v>
@@ -7988,7 +7988,7 @@
         <v>12</v>
       </c>
       <c r="J94" s="0">
-        <v>461</v>
+        <v>466.19999999999999</v>
       </c>
       <c r="K94" s="0">
         <v>21</v>
@@ -8071,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="0">
-        <v>461</v>
+        <v>468.80000000000001</v>
       </c>
       <c r="K95" s="0">
         <v>23</v>
@@ -8154,7 +8154,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="0">
-        <v>461</v>
+        <v>471.39999999999998</v>
       </c>
       <c r="K96" s="0">
         <v>28</v>
@@ -8235,7 +8235,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="0">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="K97" s="0">
         <v>0</v>
@@ -8264,7 +8264,9 @@
       <c r="S97" s="0">
         <v>0</v>
       </c>
-      <c r="T97" s="0"/>
+      <c r="T97" s="0">
+        <v>0</v>
+      </c>
       <c r="U97" s="0">
         <v>0</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="0">
-        <v>0</v>
+        <v>444.16666666666669</v>
       </c>
       <c r="K98" s="0">
         <v>15</v>
@@ -8346,7 +8348,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T98" s="0">
-        <v>65535</v>
+        <v>18.432272727272728</v>
       </c>
       <c r="U98" s="0">
         <v>24.330600000000004</v>
@@ -8399,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="J99" s="0">
-        <v>440</v>
+        <v>448.33333333333331</v>
       </c>
       <c r="K99" s="0">
         <v>8</v>
@@ -8482,7 +8484,7 @@
         <v>29</v>
       </c>
       <c r="J100" s="0">
-        <v>0</v>
+        <v>452.5</v>
       </c>
       <c r="K100" s="0">
         <v>10</v>
@@ -8512,7 +8514,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T100" s="0">
-        <v>65535</v>
+        <v>264.19590909090914</v>
       </c>
       <c r="U100" s="0">
         <v>117.59790000000001</v>
@@ -8565,7 +8567,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="0">
-        <v>440</v>
+        <v>456.66666666666669</v>
       </c>
       <c r="K101" s="0">
         <v>6</v>
@@ -8648,7 +8650,7 @@
         <v>7</v>
       </c>
       <c r="J102" s="0">
-        <v>440</v>
+        <v>460.83333333333331</v>
       </c>
       <c r="K102" s="0">
         <v>11</v>
@@ -8731,7 +8733,7 @@
         <v>13</v>
       </c>
       <c r="J103" s="0">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="K103" s="0">
         <v>10</v>
@@ -8761,7 +8763,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T103" s="0">
-        <v>65535</v>
+        <v>124.99591397849463</v>
       </c>
       <c r="U103" s="0">
         <v>59.474800000000002</v>
@@ -8814,7 +8816,7 @@
         <v>8</v>
       </c>
       <c r="J104" s="0">
-        <v>465</v>
+        <v>466.39999999999998</v>
       </c>
       <c r="K104" s="0">
         <v>6</v>
@@ -8897,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="J105" s="0">
-        <v>465</v>
+        <v>467.80000000000001</v>
       </c>
       <c r="K105" s="0">
         <v>8</v>
@@ -8980,7 +8982,7 @@
         <v>4</v>
       </c>
       <c r="J106" s="0">
-        <v>465</v>
+        <v>469.19999999999999</v>
       </c>
       <c r="K106" s="0">
         <v>12</v>
@@ -9063,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="0">
-        <v>465</v>
+        <v>470.60000000000002</v>
       </c>
       <c r="K107" s="0">
         <v>7</v>
@@ -9146,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K108" s="0">
         <v>19</v>
@@ -9176,7 +9178,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T108" s="0">
-        <v>61.04451612903226</v>
+        <v>60.139194915254251</v>
       </c>
       <c r="U108" s="0">
         <v>28.385700000000003</v>
@@ -9229,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="0">
-        <v>0</v>
+        <v>473.19999999999999</v>
       </c>
       <c r="K109" s="0">
         <v>15</v>
@@ -9259,7 +9261,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T109" s="0">
-        <v>65535</v>
+        <v>51.547881355932212</v>
       </c>
       <c r="U109" s="0">
         <v>24.330600000000004</v>
@@ -9312,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="0">
-        <v>472</v>
+        <v>474.39999999999998</v>
       </c>
       <c r="K110" s="0">
         <v>17</v>
@@ -9395,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="0">
-        <v>472</v>
+        <v>475.60000000000002</v>
       </c>
       <c r="K111" s="0">
         <v>17</v>
@@ -9478,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="0">
-        <v>472</v>
+        <v>476.80000000000001</v>
       </c>
       <c r="K112" s="0">
         <v>24</v>
@@ -9642,7 +9644,7 @@
         <v>9</v>
       </c>
       <c r="J114" s="0">
-        <v>282</v>
+        <v>283.33333333333331</v>
       </c>
       <c r="K114" s="0">
         <v>17</v>
@@ -9725,7 +9727,7 @@
         <v>3</v>
       </c>
       <c r="J115" s="0">
-        <v>282</v>
+        <v>284.66666666666669</v>
       </c>
       <c r="K115" s="0">
         <v>14</v>
@@ -9806,7 +9808,7 @@
         <v>120</v>
       </c>
       <c r="J116" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K116" s="0">
         <v>9</v>
@@ -9889,7 +9891,7 @@
         <v>34</v>
       </c>
       <c r="J117" s="0">
-        <v>282</v>
+        <v>287.33333333333331</v>
       </c>
       <c r="K117" s="0">
         <v>13</v>
@@ -10055,7 +10057,7 @@
         <v>23</v>
       </c>
       <c r="J119" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K119" s="0">
         <v>5</v>
@@ -10138,7 +10140,7 @@
         <v>28</v>
       </c>
       <c r="J120" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K120" s="0">
         <v>7</v>
@@ -10221,7 +10223,7 @@
         <v>2</v>
       </c>
       <c r="J121" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K121" s="0">
         <v>7</v>
@@ -10304,7 +10306,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K122" s="0">
         <v>6</v>
@@ -10470,7 +10472,7 @@
         <v>7</v>
       </c>
       <c r="J124" s="0">
-        <v>300</v>
+        <v>302.19999999999999</v>
       </c>
       <c r="K124" s="0">
         <v>5</v>
@@ -10553,7 +10555,7 @@
         <v>12</v>
       </c>
       <c r="J125" s="0">
-        <v>300</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="K125" s="0">
         <v>8</v>
@@ -10636,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="0">
-        <v>300</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="K126" s="0">
         <v>5</v>
@@ -10719,7 +10721,7 @@
         <v>16</v>
       </c>
       <c r="J127" s="0">
-        <v>300</v>
+        <v>308.80000000000001</v>
       </c>
       <c r="K127" s="0">
         <v>8</v>
@@ -10851,7 +10853,7 @@
         <v>50</v>
       </c>
       <c r="AA128" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129">
@@ -10881,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="0">
-        <v>229</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="K129" s="0">
         <v>14</v>
@@ -10932,7 +10934,7 @@
         <v>50</v>
       </c>
       <c r="AA129" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
@@ -10964,7 +10966,7 @@
         <v>20</v>
       </c>
       <c r="J130" s="0">
-        <v>229</v>
+        <v>237.66666666666666</v>
       </c>
       <c r="K130" s="0">
         <v>12</v>
@@ -11015,7 +11017,7 @@
         <v>50</v>
       </c>
       <c r="AA130" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131">
@@ -11047,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="J131" s="0">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K131" s="0">
         <v>8</v>
@@ -11098,7 +11100,7 @@
         <v>50</v>
       </c>
       <c r="AA131" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132">
@@ -11130,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="J132" s="0">
-        <v>229</v>
+        <v>246.33333333333334</v>
       </c>
       <c r="K132" s="0">
         <v>7</v>
@@ -11181,7 +11183,7 @@
         <v>50</v>
       </c>
       <c r="AA132" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
@@ -11264,7 +11266,7 @@
         <v>50</v>
       </c>
       <c r="AA133" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
@@ -11296,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="0">
-        <v>255</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="K134" s="0">
         <v>6</v>
@@ -11347,7 +11349,7 @@
         <v>50</v>
       </c>
       <c r="AA134" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
@@ -11379,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="0">
-        <v>255</v>
+        <v>257.80000000000001</v>
       </c>
       <c r="K135" s="0">
         <v>6</v>
@@ -11430,7 +11432,7 @@
         <v>50</v>
       </c>
       <c r="AA135" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136">
@@ -11462,7 +11464,7 @@
         <v>11</v>
       </c>
       <c r="J136" s="0">
-        <v>255</v>
+        <v>259.19999999999999</v>
       </c>
       <c r="K136" s="0">
         <v>7</v>
@@ -11513,7 +11515,7 @@
         <v>50</v>
       </c>
       <c r="AA136" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
@@ -11545,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="0">
-        <v>255</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="K137" s="0">
         <v>2</v>
@@ -11596,7 +11598,7 @@
         <v>50</v>
       </c>
       <c r="AA137" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138">
@@ -11679,7 +11681,7 @@
         <v>50</v>
       </c>
       <c r="AA138" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139">
@@ -11711,7 +11713,7 @@
         <v>5</v>
       </c>
       <c r="J139" s="0">
-        <v>262</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="K139" s="0">
         <v>8</v>
@@ -11762,7 +11764,7 @@
         <v>50</v>
       </c>
       <c r="AA139" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140">
@@ -11794,7 +11796,7 @@
         <v>5</v>
       </c>
       <c r="J140" s="0">
-        <v>262</v>
+        <v>265.19999999999999</v>
       </c>
       <c r="K140" s="0">
         <v>8</v>
@@ -11845,7 +11847,7 @@
         <v>50</v>
       </c>
       <c r="AA140" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141">
@@ -11877,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="0">
-        <v>262</v>
+        <v>266.80000000000001</v>
       </c>
       <c r="K141" s="0">
         <v>5</v>
@@ -11928,7 +11930,7 @@
         <v>50</v>
       </c>
       <c r="AA141" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142">
@@ -11960,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="0">
-        <v>262</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="K142" s="0">
         <v>9</v>
@@ -12011,7 +12013,7 @@
         <v>50</v>
       </c>
       <c r="AA142" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143">
@@ -12124,7 +12126,7 @@
         <v>13</v>
       </c>
       <c r="J144" s="0">
-        <v>290</v>
+        <v>291.33333333333331</v>
       </c>
       <c r="K144" s="0">
         <v>26</v>
@@ -12207,7 +12209,7 @@
         <v>17</v>
       </c>
       <c r="J145" s="0">
-        <v>290</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="K145" s="0">
         <v>29</v>
@@ -12290,7 +12292,7 @@
         <v>20</v>
       </c>
       <c r="J146" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K146" s="0">
         <v>26</v>
@@ -12373,7 +12375,7 @@
         <v>3</v>
       </c>
       <c r="J147" s="0">
-        <v>290</v>
+        <v>295.33333333333331</v>
       </c>
       <c r="K147" s="0">
         <v>27</v>
@@ -12539,7 +12541,7 @@
         <v>11</v>
       </c>
       <c r="J149" s="0">
-        <v>298</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="K149" s="0">
         <v>18</v>
@@ -12622,7 +12624,7 @@
         <v>4</v>
       </c>
       <c r="J150" s="0">
-        <v>298</v>
+        <v>297.19999999999999</v>
       </c>
       <c r="K150" s="0">
         <v>18</v>
@@ -12705,7 +12707,7 @@
         <v>2</v>
       </c>
       <c r="J151" s="0">
-        <v>298</v>
+        <v>296.80000000000001</v>
       </c>
       <c r="K151" s="0">
         <v>5</v>
@@ -12788,7 +12790,7 @@
         <v>5</v>
       </c>
       <c r="J152" s="0">
-        <v>298</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="K152" s="0">
         <v>12</v>
@@ -12954,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="J154" s="0">
-        <v>296</v>
+        <v>297.19999999999999</v>
       </c>
       <c r="K154" s="0">
         <v>13</v>
@@ -13037,7 +13039,7 @@
         <v>2</v>
       </c>
       <c r="J155" s="0">
-        <v>296</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="K155" s="0">
         <v>22</v>
@@ -13120,7 +13122,7 @@
         <v>10</v>
       </c>
       <c r="J156" s="0">
-        <v>296</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="K156" s="0">
         <v>14</v>
@@ -13203,7 +13205,7 @@
         <v>5</v>
       </c>
       <c r="J157" s="0">
-        <v>296</v>
+        <v>300.80000000000001</v>
       </c>
       <c r="K157" s="0">
         <v>16</v>
@@ -13367,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="0">
-        <v>249</v>
+        <v>248.16666666666666</v>
       </c>
       <c r="K159" s="0">
         <v>16</v>
@@ -13450,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="0">
-        <v>249</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="K160" s="0">
         <v>11</v>
@@ -13533,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="0">
-        <v>249</v>
+        <v>246.5</v>
       </c>
       <c r="K161" s="0">
         <v>18</v>
@@ -13616,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="0">
-        <v>249</v>
+        <v>245.66666666666666</v>
       </c>
       <c r="K162" s="0">
         <v>13</v>
@@ -13782,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="0">
-        <v>244</v>
+        <v>244.19999999999999</v>
       </c>
       <c r="K164" s="0">
         <v>4</v>
@@ -13865,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="0">
-        <v>244</v>
+        <v>244.40000000000001</v>
       </c>
       <c r="K165" s="0">
         <v>9</v>
@@ -13948,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="0">
-        <v>244</v>
+        <v>244.59999999999999</v>
       </c>
       <c r="K166" s="0">
         <v>9</v>
@@ -14031,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="0">
-        <v>244</v>
+        <v>244.80000000000001</v>
       </c>
       <c r="K167" s="0">
         <v>9</v>
@@ -14197,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K169" s="0">
         <v>9</v>
@@ -14280,7 +14282,7 @@
         <v>23</v>
       </c>
       <c r="J170" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K170" s="0">
         <v>13</v>
@@ -14363,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K171" s="0">
         <v>3</v>
@@ -14446,7 +14448,7 @@
         <v>7</v>
       </c>
       <c r="J172" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K172" s="0">
         <v>8</v>
@@ -14610,7 +14612,7 @@
         <v>2</v>
       </c>
       <c r="J174" s="0">
-        <v>361</v>
+        <v>363.33333333333331</v>
       </c>
       <c r="K174" s="0">
         <v>32</v>
@@ -14693,7 +14695,7 @@
         <v>15</v>
       </c>
       <c r="J175" s="0">
-        <v>361</v>
+        <v>365.66666666666669</v>
       </c>
       <c r="K175" s="0">
         <v>16</v>
@@ -14776,7 +14778,7 @@
         <v>76</v>
       </c>
       <c r="J176" s="0">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K176" s="0">
         <v>20</v>
@@ -14859,7 +14861,7 @@
         <v>23</v>
       </c>
       <c r="J177" s="0">
-        <v>361</v>
+        <v>370.33333333333331</v>
       </c>
       <c r="K177" s="0">
         <v>15</v>
@@ -15025,7 +15027,7 @@
         <v>10</v>
       </c>
       <c r="J179" s="0">
-        <v>375</v>
+        <v>376.19999999999999</v>
       </c>
       <c r="K179" s="0">
         <v>17</v>
@@ -15108,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="J180" s="0">
-        <v>375</v>
+        <v>377.39999999999998</v>
       </c>
       <c r="K180" s="0">
         <v>12</v>
@@ -15191,7 +15193,7 @@
         <v>3</v>
       </c>
       <c r="J181" s="0">
-        <v>375</v>
+        <v>378.60000000000002</v>
       </c>
       <c r="K181" s="0">
         <v>12</v>
@@ -15274,7 +15276,7 @@
         <v>6</v>
       </c>
       <c r="J182" s="0">
-        <v>375</v>
+        <v>379.80000000000001</v>
       </c>
       <c r="K182" s="0">
         <v>12</v>
@@ -15440,7 +15442,7 @@
         <v>9</v>
       </c>
       <c r="J184" s="0">
-        <v>381</v>
+        <v>383.80000000000001</v>
       </c>
       <c r="K184" s="0">
         <v>22</v>
@@ -15523,7 +15525,7 @@
         <v>20</v>
       </c>
       <c r="J185" s="0">
-        <v>381</v>
+        <v>386.60000000000002</v>
       </c>
       <c r="K185" s="0">
         <v>28</v>
@@ -15606,7 +15608,7 @@
         <v>3</v>
       </c>
       <c r="J186" s="0">
-        <v>381</v>
+        <v>389.39999999999998</v>
       </c>
       <c r="K186" s="0">
         <v>9</v>
@@ -15689,7 +15691,7 @@
         <v>8</v>
       </c>
       <c r="J187" s="0">
-        <v>381</v>
+        <v>392.19999999999999</v>
       </c>
       <c r="K187" s="0">
         <v>9</v>
@@ -15853,7 +15855,7 @@
         <v>2</v>
       </c>
       <c r="J189" s="0">
-        <v>425</v>
+        <v>429.5</v>
       </c>
       <c r="K189" s="0">
         <v>12</v>
@@ -15936,7 +15938,7 @@
         <v>5</v>
       </c>
       <c r="J190" s="0">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K190" s="0">
         <v>9</v>
@@ -16019,7 +16021,7 @@
         <v>4</v>
       </c>
       <c r="J191" s="0">
-        <v>425</v>
+        <v>438.5</v>
       </c>
       <c r="K191" s="0">
         <v>12</v>
@@ -16102,7 +16104,7 @@
         <v>4</v>
       </c>
       <c r="J192" s="0">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="K192" s="0">
         <v>15</v>
@@ -16268,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="0">
-        <v>452</v>
+        <v>456.39999999999998</v>
       </c>
       <c r="K194" s="0">
         <v>13</v>
@@ -16351,7 +16353,7 @@
         <v>6</v>
       </c>
       <c r="J195" s="0">
-        <v>452</v>
+        <v>460.80000000000001</v>
       </c>
       <c r="K195" s="0">
         <v>9</v>
@@ -16434,7 +16436,7 @@
         <v>30</v>
       </c>
       <c r="J196" s="0">
-        <v>452</v>
+        <v>465.19999999999999</v>
       </c>
       <c r="K196" s="0">
         <v>9</v>
@@ -16517,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="J197" s="0">
-        <v>452</v>
+        <v>469.60000000000002</v>
       </c>
       <c r="K197" s="0">
         <v>9</v>
@@ -16683,7 +16685,7 @@
         <v>4</v>
       </c>
       <c r="J199" s="0">
-        <v>474</v>
+        <v>483.19999999999999</v>
       </c>
       <c r="K199" s="0">
         <v>14</v>
@@ -16766,7 +16768,7 @@
         <v>2</v>
       </c>
       <c r="J200" s="0">
-        <v>474</v>
+        <v>492.39999999999998</v>
       </c>
       <c r="K200" s="0">
         <v>35</v>
@@ -16849,7 +16851,7 @@
         <v>3</v>
       </c>
       <c r="J201" s="0">
-        <v>474</v>
+        <v>501.60000000000002</v>
       </c>
       <c r="K201" s="0">
         <v>38</v>
@@ -16932,7 +16934,7 @@
         <v>5</v>
       </c>
       <c r="J202" s="0">
-        <v>474</v>
+        <v>510.80000000000001</v>
       </c>
       <c r="K202" s="0">
         <v>37</v>
@@ -17096,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="J204" s="0">
-        <v>392</v>
+        <v>394.83333333333331</v>
       </c>
       <c r="K204" s="0">
         <v>18</v>
@@ -17179,7 +17181,7 @@
         <v>5</v>
       </c>
       <c r="J205" s="0">
-        <v>392</v>
+        <v>397.66666666666669</v>
       </c>
       <c r="K205" s="0">
         <v>11</v>
@@ -17262,7 +17264,7 @@
         <v>18</v>
       </c>
       <c r="J206" s="0">
-        <v>392</v>
+        <v>400.5</v>
       </c>
       <c r="K206" s="0">
         <v>18</v>
@@ -17345,7 +17347,7 @@
         <v>17</v>
       </c>
       <c r="J207" s="0">
-        <v>392</v>
+        <v>403.33333333333331</v>
       </c>
       <c r="K207" s="0">
         <v>16</v>
@@ -17511,7 +17513,7 @@
         <v>12</v>
       </c>
       <c r="J209" s="0">
-        <v>409</v>
+        <v>411.19999999999999</v>
       </c>
       <c r="K209" s="0">
         <v>13</v>
@@ -17594,7 +17596,7 @@
         <v>15</v>
       </c>
       <c r="J210" s="0">
-        <v>409</v>
+        <v>413.39999999999998</v>
       </c>
       <c r="K210" s="0">
         <v>9</v>
@@ -17677,7 +17679,7 @@
         <v>5</v>
       </c>
       <c r="J211" s="0">
-        <v>409</v>
+        <v>415.60000000000002</v>
       </c>
       <c r="K211" s="0">
         <v>7</v>
@@ -17760,7 +17762,7 @@
         <v>8</v>
       </c>
       <c r="J212" s="0">
-        <v>409</v>
+        <v>417.80000000000001</v>
       </c>
       <c r="K212" s="0">
         <v>11</v>
@@ -17926,7 +17928,7 @@
         <v>5</v>
       </c>
       <c r="J214" s="0">
-        <v>420</v>
+        <v>422.39999999999998</v>
       </c>
       <c r="K214" s="0">
         <v>9</v>
@@ -18009,7 +18011,7 @@
         <v>2</v>
       </c>
       <c r="J215" s="0">
-        <v>420</v>
+        <v>424.80000000000001</v>
       </c>
       <c r="K215" s="0">
         <v>7</v>
@@ -18092,7 +18094,7 @@
         <v>7</v>
       </c>
       <c r="J216" s="0">
-        <v>420</v>
+        <v>427.19999999999999</v>
       </c>
       <c r="K216" s="0">
         <v>8</v>
@@ -18175,7 +18177,7 @@
         <v>5</v>
       </c>
       <c r="J217" s="0">
-        <v>420</v>
+        <v>429.60000000000002</v>
       </c>
       <c r="K217" s="0">
         <v>6</v>
@@ -18307,7 +18309,7 @@
         <v>50</v>
       </c>
       <c r="AA218" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219">
@@ -18339,7 +18341,7 @@
         <v>13</v>
       </c>
       <c r="J219" s="0">
-        <v>440</v>
+        <v>444.16666666666669</v>
       </c>
       <c r="K219" s="0">
         <v>17</v>
@@ -18390,7 +18392,7 @@
         <v>50</v>
       </c>
       <c r="AA219" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220">
@@ -18422,7 +18424,7 @@
         <v>7</v>
       </c>
       <c r="J220" s="0">
-        <v>440</v>
+        <v>448.33333333333331</v>
       </c>
       <c r="K220" s="0">
         <v>6</v>
@@ -18473,7 +18475,7 @@
         <v>50</v>
       </c>
       <c r="AA220" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221">
@@ -18505,7 +18507,7 @@
         <v>10</v>
       </c>
       <c r="J221" s="0">
-        <v>440</v>
+        <v>452.5</v>
       </c>
       <c r="K221" s="0">
         <v>3</v>
@@ -18556,7 +18558,7 @@
         <v>50</v>
       </c>
       <c r="AA221" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222">
@@ -18588,7 +18590,7 @@
         <v>2</v>
       </c>
       <c r="J222" s="0">
-        <v>440</v>
+        <v>456.66666666666669</v>
       </c>
       <c r="K222" s="0">
         <v>3</v>
@@ -18639,7 +18641,7 @@
         <v>50</v>
       </c>
       <c r="AA222" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223">
@@ -18722,7 +18724,7 @@
         <v>50</v>
       </c>
       <c r="AA223" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224">
@@ -18754,7 +18756,7 @@
         <v>3</v>
       </c>
       <c r="J224" s="0">
-        <v>465</v>
+        <v>466.39999999999998</v>
       </c>
       <c r="K224" s="0">
         <v>3</v>
@@ -18805,7 +18807,7 @@
         <v>50</v>
       </c>
       <c r="AA224" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225">
@@ -18837,7 +18839,7 @@
         <v>11</v>
       </c>
       <c r="J225" s="0">
-        <v>465</v>
+        <v>467.80000000000001</v>
       </c>
       <c r="K225" s="0">
         <v>11</v>
@@ -18888,7 +18890,7 @@
         <v>50</v>
       </c>
       <c r="AA225" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226">
@@ -18920,7 +18922,7 @@
         <v>3</v>
       </c>
       <c r="J226" s="0">
-        <v>465</v>
+        <v>469.19999999999999</v>
       </c>
       <c r="K226" s="0">
         <v>6</v>
@@ -18971,7 +18973,7 @@
         <v>50</v>
       </c>
       <c r="AA226" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
@@ -19003,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="0">
-        <v>465</v>
+        <v>470.60000000000002</v>
       </c>
       <c r="K227" s="0">
         <v>3</v>
@@ -19054,7 +19056,7 @@
         <v>50</v>
       </c>
       <c r="AA227" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228">
@@ -19137,7 +19139,7 @@
         <v>50</v>
       </c>
       <c r="AA228" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229">
@@ -19169,7 +19171,7 @@
         <v>3</v>
       </c>
       <c r="J229" s="0">
-        <v>472</v>
+        <v>473.60000000000002</v>
       </c>
       <c r="K229" s="0">
         <v>5</v>
@@ -19220,7 +19222,7 @@
         <v>50</v>
       </c>
       <c r="AA229" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230">
@@ -19252,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="J230" s="0">
-        <v>472</v>
+        <v>475.19999999999999</v>
       </c>
       <c r="K230" s="0">
         <v>7</v>
@@ -19303,7 +19305,7 @@
         <v>50</v>
       </c>
       <c r="AA230" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231">
@@ -19335,7 +19337,7 @@
         <v>4</v>
       </c>
       <c r="J231" s="0">
-        <v>472</v>
+        <v>476.80000000000001</v>
       </c>
       <c r="K231" s="0">
         <v>5</v>
@@ -19386,7 +19388,7 @@
         <v>50</v>
       </c>
       <c r="AA231" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232">
@@ -19418,7 +19420,7 @@
         <v>7</v>
       </c>
       <c r="J232" s="0">
-        <v>472</v>
+        <v>478.39999999999998</v>
       </c>
       <c r="K232" s="0">
         <v>5</v>
@@ -19469,7 +19471,7 @@
         <v>50</v>
       </c>
       <c r="AA232" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="15000" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16643" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19929" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19929" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="21572" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="21572" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="23215" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="23215" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24858" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24858" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28144" uniqueCount="53">
   <si>
     <t>TagNumber</t>
   </si>
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="0">
-        <v>180.7842857142858</v>
+        <v>48.290000000000134</v>
       </c>
       <c r="H4" s="0">
         <v>24</v>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="0">
-        <v>320.68800000000016</v>
+        <v>119.26125000000019</v>
       </c>
       <c r="H6" s="0">
         <v>43</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="0">
-        <v>612.10799999999972</v>
+        <v>9.5049999999998818</v>
       </c>
       <c r="H7" s="0">
         <v>14</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="0">
-        <v>291.33333333333343</v>
+        <v>89.980000000000189</v>
       </c>
       <c r="H8" s="0">
         <v>17</v>
@@ -934,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="0">
-        <v>158.10818181818183</v>
+        <v>87.441111111111113</v>
       </c>
       <c r="H9" s="0">
         <v>27</v>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="0">
-        <v>800.31600000000003</v>
+        <v>71.589999999999975</v>
       </c>
       <c r="H12" s="0">
         <v>8</v>
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="0">
-        <v>165.69200000000009</v>
+        <v>88.665000000000077</v>
       </c>
       <c r="H13" s="0">
         <v>14</v>
@@ -1349,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="0">
-        <v>272.5675</v>
+        <v>21.299999999999972</v>
       </c>
       <c r="H14" s="0">
         <v>19</v>
@@ -1598,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="0">
-        <v>315.58499999999992</v>
+        <v>24.78000000000003</v>
       </c>
       <c r="H17" s="0">
         <v>24</v>
@@ -1928,7 +1928,7 @@
         <v>73</v>
       </c>
       <c r="G21" s="0">
-        <v>91.398421052631576</v>
+        <v>29.080588235294069</v>
       </c>
       <c r="H21" s="0">
         <v>42</v>
@@ -2011,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="G22" s="0">
-        <v>171.078</v>
+        <v>41.552499999999938</v>
       </c>
       <c r="H22" s="0">
         <v>38</v>
@@ -2094,7 +2094,7 @@
         <v>55</v>
       </c>
       <c r="G23" s="0">
-        <v>315.25999999999999</v>
+        <v>116.09142857142862</v>
       </c>
       <c r="H23" s="0">
         <v>12</v>
@@ -2177,7 +2177,7 @@
         <v>41</v>
       </c>
       <c r="G24" s="0">
-        <v>277.83428571428578</v>
+        <v>47.93166666666675</v>
       </c>
       <c r="H24" s="0">
         <v>16</v>
@@ -2260,7 +2260,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="0">
-        <v>130.20866666666674</v>
+        <v>56.400833333333388</v>
       </c>
       <c r="H25" s="0">
         <v>35</v>
@@ -2592,7 +2592,7 @@
         <v>66</v>
       </c>
       <c r="G29" s="0">
-        <v>129.83666666666676</v>
+        <v>32.815384615384659</v>
       </c>
       <c r="H29" s="0">
         <v>47</v>
@@ -2675,7 +2675,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="0">
-        <v>788.46100000000001</v>
+        <v>70.275714285714315</v>
       </c>
       <c r="H30" s="0">
         <v>32</v>
@@ -2758,7 +2758,7 @@
         <v>37</v>
       </c>
       <c r="G31" s="0">
-        <v>619.9711111111111</v>
+        <v>100.77333333333348</v>
       </c>
       <c r="H31" s="0">
         <v>29</v>
@@ -2841,7 +2841,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="0">
-        <v>146.7972727272726</v>
+        <v>24.233333333333359</v>
       </c>
       <c r="H32" s="0">
         <v>25</v>
@@ -2924,7 +2924,7 @@
         <v>61</v>
       </c>
       <c r="G33" s="0">
-        <v>181.3012499999999</v>
+        <v>52.018333333333203</v>
       </c>
       <c r="H33" s="0">
         <v>12</v>
@@ -3669,7 +3669,7 @@
         <v>57</v>
       </c>
       <c r="G42" s="0">
-        <v>91.716129032258166</v>
+        <v>12.522068965517363</v>
       </c>
       <c r="H42" s="0">
         <v>56</v>
@@ -3752,7 +3752,7 @@
         <v>89</v>
       </c>
       <c r="G43" s="0">
-        <v>48.31130434782618</v>
+        <v>33.236818181818286</v>
       </c>
       <c r="H43" s="0">
         <v>53</v>
@@ -3835,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="G44" s="0">
-        <v>58.698666666666604</v>
+        <v>30.797857142857083</v>
       </c>
       <c r="H44" s="0">
         <v>42</v>
@@ -4580,7 +4580,7 @@
         <v>59</v>
       </c>
       <c r="G53" s="0">
-        <v>93.349090909090947</v>
+        <v>39.030000000000044</v>
       </c>
       <c r="H53" s="0">
         <v>20</v>
@@ -4663,7 +4663,7 @@
         <v>69</v>
       </c>
       <c r="G54" s="0">
-        <v>106.16400000000003</v>
+        <v>31.428888888888853</v>
       </c>
       <c r="H54" s="0">
         <v>11</v>
@@ -5823,7 +5823,7 @@
         <v>39</v>
       </c>
       <c r="G68" s="0">
-        <v>152.69181818181818</v>
+        <v>32.709000000000024</v>
       </c>
       <c r="H68" s="0">
         <v>31</v>
@@ -5906,7 +5906,7 @@
         <v>31</v>
       </c>
       <c r="G69" s="0">
-        <v>278.38000000000005</v>
+        <v>88.498750000000015</v>
       </c>
       <c r="H69" s="0">
         <v>17</v>
@@ -5989,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="G70" s="0">
-        <v>1157.22</v>
+        <v>49.329999999999984</v>
       </c>
       <c r="H70" s="0">
         <v>5</v>
@@ -6072,7 +6072,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="0">
-        <v>303.31333333333328</v>
+        <v>83.10249999999985</v>
       </c>
       <c r="H71" s="0">
         <v>12</v>
@@ -6155,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="0">
-        <v>232.60833333333321</v>
+        <v>75.697499999999835</v>
       </c>
       <c r="H72" s="0">
         <v>14</v>
@@ -6238,7 +6238,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="0">
-        <v>187.94500000000005</v>
+        <v>93.757142857142881</v>
       </c>
       <c r="H73" s="0">
         <v>19</v>
@@ -6321,7 +6321,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="0">
-        <v>452.96000000000004</v>
+        <v>162.69000000000005</v>
       </c>
       <c r="H74" s="0">
         <v>11</v>
@@ -6404,7 +6404,7 @@
         <v>16</v>
       </c>
       <c r="G75" s="0">
-        <v>231.18600000000009</v>
+        <v>13.415000000000191</v>
       </c>
       <c r="H75" s="0">
         <v>10</v>
@@ -6570,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="0">
-        <v>619.14999999999986</v>
+        <v>37.099999999999909</v>
       </c>
       <c r="H77" s="0">
         <v>3</v>
@@ -6653,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="0">
-        <v>1977.3425000000002</v>
+        <v>27.450000000000092</v>
       </c>
       <c r="H78" s="0">
         <v>11</v>
@@ -7149,7 +7149,7 @@
         <v>135</v>
       </c>
       <c r="G84" s="0">
-        <v>24.823421052631556</v>
+        <v>11.854594594594568</v>
       </c>
       <c r="H84" s="0">
         <v>50</v>
@@ -7481,7 +7481,7 @@
         <v>40</v>
       </c>
       <c r="G88" s="0">
-        <v>37.129999999999903</v>
+        <v>1.9690909090908391</v>
       </c>
       <c r="H88" s="0">
         <v>15</v>
@@ -7979,7 +7979,7 @@
         <v>65</v>
       </c>
       <c r="G94" s="0">
-        <v>31.198571428571547</v>
+        <v>9.9785000000001141</v>
       </c>
       <c r="H94" s="0">
         <v>37</v>
@@ -8062,7 +8062,7 @@
         <v>59</v>
       </c>
       <c r="G95" s="0">
-        <v>28.572173913043581</v>
+        <v>7.7795454545455529</v>
       </c>
       <c r="H95" s="0">
         <v>33</v>
@@ -8309,7 +8309,7 @@
         <v>71</v>
       </c>
       <c r="G98" s="0">
-        <v>379.01499999999987</v>
+        <v>60.443999999999889</v>
       </c>
       <c r="H98" s="0">
         <v>8</v>
@@ -8807,7 +8807,7 @@
         <v>41</v>
       </c>
       <c r="G104" s="0">
-        <v>173.55166666666682</v>
+        <v>49.284000000000091</v>
       </c>
       <c r="H104" s="0">
         <v>39</v>
@@ -8890,7 +8890,7 @@
         <v>37</v>
       </c>
       <c r="G105" s="0">
-        <v>214.86250000000004</v>
+        <v>89.930000000000035</v>
       </c>
       <c r="H105" s="0">
         <v>39</v>
@@ -8973,7 +8973,7 @@
         <v>86</v>
       </c>
       <c r="G106" s="0">
-        <v>59.028333333333279</v>
+        <v>21.639090909090896</v>
       </c>
       <c r="H106" s="0">
         <v>16</v>
@@ -9056,7 +9056,7 @@
         <v>27</v>
       </c>
       <c r="G107" s="0">
-        <v>200.47857142857151</v>
+        <v>22.395000000000007</v>
       </c>
       <c r="H107" s="0">
         <v>23</v>
@@ -9305,7 +9305,7 @@
         <v>56</v>
       </c>
       <c r="G110" s="0">
-        <v>76.30352941176487</v>
+        <v>53.54750000000017</v>
       </c>
       <c r="H110" s="0">
         <v>30</v>
@@ -9471,7 +9471,7 @@
         <v>49</v>
       </c>
       <c r="G112" s="0">
-        <v>61.298333333333318</v>
+        <v>19.295217391304337</v>
       </c>
       <c r="H112" s="0">
         <v>36</v>
@@ -9965,7 +9965,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="0">
-        <v>705.90000000000032</v>
+        <v>29.440000000000509</v>
       </c>
       <c r="H118" s="0">
         <v>8</v>
@@ -10131,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="G120" s="0">
-        <v>242.6857142857144</v>
+        <v>43.708000000000141</v>
       </c>
       <c r="H120" s="0">
         <v>65</v>
@@ -10214,7 +10214,7 @@
         <v>23</v>
       </c>
       <c r="G121" s="0">
-        <v>179.71285714285708</v>
+        <v>15.806666666666594</v>
       </c>
       <c r="H121" s="0">
         <v>16</v>
@@ -10380,7 +10380,7 @@
         <v>22</v>
       </c>
       <c r="G123" s="0">
-        <v>180.45999999999989</v>
+        <v>52.104285714285602</v>
       </c>
       <c r="H123" s="0">
         <v>20</v>
@@ -10629,7 +10629,7 @@
         <v>14</v>
       </c>
       <c r="G126" s="0">
-        <v>384.916</v>
+        <v>11.862500000000018</v>
       </c>
       <c r="H126" s="0">
         <v>15</v>
@@ -11040,7 +11040,7 @@
         <v>12</v>
       </c>
       <c r="G131" s="0">
-        <v>356.05428571428558</v>
+        <v>77.36800000000008</v>
       </c>
       <c r="H131" s="0">
         <v>19</v>
@@ -11206,7 +11206,7 @@
         <v>38</v>
       </c>
       <c r="G133" s="0">
-        <v>236.97000000000008</v>
+        <v>99.258571428571528</v>
       </c>
       <c r="H133" s="0">
         <v>41</v>
@@ -11289,7 +11289,7 @@
         <v>19</v>
       </c>
       <c r="G134" s="0">
-        <v>192.14833333333331</v>
+        <v>96.767999999999986</v>
       </c>
       <c r="H134" s="0">
         <v>12</v>
@@ -11455,7 +11455,7 @@
         <v>17</v>
       </c>
       <c r="G136" s="0">
-        <v>619.35285714285703</v>
+        <v>159.38999999999982</v>
       </c>
       <c r="H136" s="0">
         <v>20</v>
@@ -11538,7 +11538,7 @@
         <v>6</v>
       </c>
       <c r="G137" s="0">
-        <v>399.37999999999994</v>
+        <v>25.079999999999927</v>
       </c>
       <c r="H137" s="0">
         <v>8</v>
@@ -11621,7 +11621,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="0">
-        <v>409.42374999999981</v>
+        <v>83.438571428571279</v>
       </c>
       <c r="H138" s="0">
         <v>52</v>
@@ -11704,7 +11704,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="0">
-        <v>505.30000000000007</v>
+        <v>21.716666666666708</v>
       </c>
       <c r="H139" s="0">
         <v>42</v>
@@ -11787,7 +11787,7 @@
         <v>38</v>
       </c>
       <c r="G140" s="0">
-        <v>147.78374999999997</v>
+        <v>61.612857142857116</v>
       </c>
       <c r="H140" s="0">
         <v>29</v>
@@ -11870,7 +11870,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="0">
-        <v>272.17000000000002</v>
+        <v>21.339999999999964</v>
       </c>
       <c r="H141" s="0">
         <v>19</v>
@@ -11953,7 +11953,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="0">
-        <v>134.62000000000009</v>
+        <v>20.930000000000053</v>
       </c>
       <c r="H142" s="0">
         <v>52</v>
@@ -12532,7 +12532,7 @@
         <v>45</v>
       </c>
       <c r="G149" s="0">
-        <v>209.30111111111114</v>
+        <v>31.089999999999996</v>
       </c>
       <c r="H149" s="0">
         <v>57</v>
@@ -12698,7 +12698,7 @@
         <v>29</v>
       </c>
       <c r="G151" s="0">
-        <v>212.66800000000003</v>
+        <v>80.332499999999996</v>
       </c>
       <c r="H151" s="0">
         <v>12</v>
@@ -12864,7 +12864,7 @@
         <v>30</v>
       </c>
       <c r="G153" s="0">
-        <v>149.51615384615391</v>
+        <v>35.828181818181911</v>
       </c>
       <c r="H153" s="0">
         <v>37</v>
@@ -13196,7 +13196,7 @@
         <v>31</v>
       </c>
       <c r="G157" s="0">
-        <v>112.07500000000002</v>
+        <v>9.0080000000000009</v>
       </c>
       <c r="H157" s="0">
         <v>33</v>
@@ -13360,7 +13360,7 @@
         <v>36</v>
       </c>
       <c r="G159" s="0">
-        <v>271.63615384615366</v>
+        <v>168.39499999999992</v>
       </c>
       <c r="H159" s="0">
         <v>52</v>
@@ -13609,7 +13609,7 @@
         <v>18</v>
       </c>
       <c r="G162" s="0">
-        <v>204.48307692307694</v>
+        <v>21.522727272727241</v>
       </c>
       <c r="H162" s="0">
         <v>144</v>
@@ -13858,7 +13858,7 @@
         <v>27</v>
       </c>
       <c r="G165" s="0">
-        <v>167.14444444444442</v>
+        <v>93.246249999999961</v>
       </c>
       <c r="H165" s="0">
         <v>30</v>
@@ -13941,7 +13941,7 @@
         <v>43</v>
       </c>
       <c r="G166" s="0">
-        <v>127.10000000000004</v>
+        <v>72.263750000000044</v>
       </c>
       <c r="H166" s="0">
         <v>13</v>
@@ -14024,7 +14024,7 @@
         <v>46</v>
       </c>
       <c r="G167" s="0">
-        <v>118.26857142857135</v>
+        <v>69.061666666666568</v>
       </c>
       <c r="H167" s="0">
         <v>8</v>
@@ -14107,7 +14107,7 @@
         <v>45</v>
       </c>
       <c r="G168" s="0">
-        <v>188.73772727272726</v>
+        <v>67.631428571428557</v>
       </c>
       <c r="H168" s="0">
         <v>64</v>
@@ -14190,7 +14190,7 @@
         <v>32</v>
       </c>
       <c r="G169" s="0">
-        <v>134.16444444444443</v>
+        <v>92.555000000000092</v>
       </c>
       <c r="H169" s="0">
         <v>14</v>
@@ -14273,7 +14273,7 @@
         <v>25</v>
       </c>
       <c r="G170" s="0">
-        <v>145.37538461538463</v>
+        <v>82.691818181818149</v>
       </c>
       <c r="H170" s="0">
         <v>55</v>
@@ -14356,7 +14356,7 @@
         <v>6</v>
       </c>
       <c r="G171" s="0">
-        <v>706.90333333333331</v>
+        <v>283</v>
       </c>
       <c r="H171" s="0">
         <v>7</v>
@@ -14439,7 +14439,7 @@
         <v>14</v>
       </c>
       <c r="G172" s="0">
-        <v>624.65499999999997</v>
+        <v>66.668333333333138</v>
       </c>
       <c r="H172" s="0">
         <v>16</v>
@@ -14686,7 +14686,7 @@
         <v>49</v>
       </c>
       <c r="G175" s="0">
-        <v>47.108181818181855</v>
+        <v>15.156999999999963</v>
       </c>
       <c r="H175" s="0">
         <v>51</v>
@@ -14769,7 +14769,7 @@
         <v>64</v>
       </c>
       <c r="G176" s="0">
-        <v>161.23750000000004</v>
+        <v>33.757222222222282</v>
       </c>
       <c r="H176" s="0">
         <v>78</v>
@@ -14852,7 +14852,7 @@
         <v>29</v>
       </c>
       <c r="G177" s="0">
-        <v>258.5044444444444</v>
+        <v>100.10857142857139</v>
       </c>
       <c r="H177" s="0">
         <v>41</v>
@@ -14935,7 +14935,7 @@
         <v>34</v>
       </c>
       <c r="G178" s="0">
-        <v>44.310833333333356</v>
+        <v>15.190909090909026</v>
       </c>
       <c r="H178" s="0">
         <v>17</v>
@@ -15018,7 +15018,7 @@
         <v>34</v>
       </c>
       <c r="G179" s="0">
-        <v>169.95411764705867</v>
+        <v>44.862666666666534</v>
       </c>
       <c r="H179" s="0">
         <v>26</v>
@@ -15101,7 +15101,7 @@
         <v>25</v>
       </c>
       <c r="G180" s="0">
-        <v>281.50416666666666</v>
+        <v>20.686000000000014</v>
       </c>
       <c r="H180" s="0">
         <v>26</v>
@@ -15184,7 +15184,7 @@
         <v>34</v>
       </c>
       <c r="G181" s="0">
-        <v>185.81583333333347</v>
+        <v>33.600909090909205</v>
       </c>
       <c r="H181" s="0">
         <v>18</v>
@@ -15516,7 +15516,7 @@
         <v>89</v>
       </c>
       <c r="G185" s="0">
-        <v>39.806071428571464</v>
+        <v>12.119230769230818</v>
       </c>
       <c r="H185" s="0">
         <v>39</v>
@@ -15682,7 +15682,7 @@
         <v>24</v>
       </c>
       <c r="G187" s="0">
-        <v>124.11444444444464</v>
+        <v>13.042500000000157</v>
       </c>
       <c r="H187" s="0">
         <v>21</v>
@@ -15846,7 +15846,7 @@
         <v>24</v>
       </c>
       <c r="G189" s="0">
-        <v>110.29600000000001</v>
+        <v>28.853749999999977</v>
       </c>
       <c r="H189" s="0">
         <v>37</v>
@@ -16095,7 +16095,7 @@
         <v>43</v>
       </c>
       <c r="G192" s="0">
-        <v>218.84666666666678</v>
+        <v>26.805454545454669</v>
       </c>
       <c r="H192" s="0">
         <v>35</v>
@@ -16178,7 +16178,7 @@
         <v>20</v>
       </c>
       <c r="G193" s="0">
-        <v>257.09777777777782</v>
+        <v>70.802857142857206</v>
       </c>
       <c r="H193" s="0">
         <v>23</v>
@@ -16344,7 +16344,7 @@
         <v>20</v>
       </c>
       <c r="G195" s="0">
-        <v>119.0366666666666</v>
+        <v>18.21571428571426</v>
       </c>
       <c r="H195" s="0">
         <v>33</v>
@@ -16510,7 +16510,7 @@
         <v>23</v>
       </c>
       <c r="G197" s="0">
-        <v>274.51222222222225</v>
+        <v>44.858571428571388</v>
       </c>
       <c r="H197" s="0">
         <v>28</v>
@@ -16676,7 +16676,7 @@
         <v>36</v>
       </c>
       <c r="G199" s="0">
-        <v>76.430714285714245</v>
+        <v>20.723076923076878</v>
       </c>
       <c r="H199" s="0">
         <v>33</v>
@@ -16759,7 +16759,7 @@
         <v>113</v>
       </c>
       <c r="G200" s="0">
-        <v>30.303428571428508</v>
+        <v>14.364117647058711</v>
       </c>
       <c r="H200" s="0">
         <v>40</v>
@@ -17421,7 +17421,7 @@
         <v>23</v>
       </c>
       <c r="G208" s="0">
-        <v>172.57071428571427</v>
+        <v>47.274999999999942</v>
       </c>
       <c r="H208" s="0">
         <v>35</v>
@@ -17504,7 +17504,7 @@
         <v>37</v>
       </c>
       <c r="G209" s="0">
-        <v>177.54230769230756</v>
+        <v>37.54333333333323</v>
       </c>
       <c r="H209" s="0">
         <v>40</v>
@@ -17587,7 +17587,7 @@
         <v>25</v>
       </c>
       <c r="G210" s="0">
-        <v>320.85555555555555</v>
+        <v>30.88142857142855</v>
       </c>
       <c r="H210" s="0">
         <v>20</v>
@@ -17753,7 +17753,7 @@
         <v>33</v>
       </c>
       <c r="G212" s="0">
-        <v>283.84363636363628</v>
+        <v>73.838999999999899</v>
       </c>
       <c r="H212" s="0">
         <v>43</v>
@@ -17836,7 +17836,7 @@
         <v>24</v>
       </c>
       <c r="G213" s="0">
-        <v>171.01600000000025</v>
+        <v>91.81111111111133</v>
       </c>
       <c r="H213" s="0">
         <v>19</v>
@@ -18085,7 +18085,7 @@
         <v>15</v>
       </c>
       <c r="G216" s="0">
-        <v>126.42249999999987</v>
+        <v>84.521428571428487</v>
       </c>
       <c r="H216" s="0">
         <v>42</v>
@@ -18168,7 +18168,7 @@
         <v>34</v>
       </c>
       <c r="G217" s="0">
-        <v>219.27500000000009</v>
+        <v>87.062000000000168</v>
       </c>
       <c r="H217" s="0">
         <v>23</v>
@@ -18332,7 +18332,7 @@
         <v>36</v>
       </c>
       <c r="G219" s="0">
-        <v>292.22769230769222</v>
+        <v>14.993636363636339</v>
       </c>
       <c r="H219" s="0">
         <v>62</v>
@@ -18415,7 +18415,7 @@
         <v>7</v>
       </c>
       <c r="G220" s="0">
-        <v>413.22799999999989</v>
+        <v>24.456666666666411</v>
       </c>
       <c r="H220" s="0">
         <v>22</v>
@@ -18498,7 +18498,7 @@
         <v>9</v>
       </c>
       <c r="G221" s="0">
-        <v>1356.1866666666665</v>
+        <v>46.100000000000364</v>
       </c>
       <c r="H221" s="0">
         <v>29</v>
@@ -18664,7 +18664,7 @@
         <v>14</v>
       </c>
       <c r="G223" s="0">
-        <v>790.26428571428562</v>
+        <v>47.309999999999988</v>
       </c>
       <c r="H223" s="0">
         <v>14</v>
@@ -18747,7 +18747,7 @@
         <v>9</v>
       </c>
       <c r="G224" s="0">
-        <v>2387.3866666666668</v>
+        <v>10.549999999999983</v>
       </c>
       <c r="H224" s="0">
         <v>5</v>
@@ -18913,7 +18913,7 @@
         <v>19</v>
       </c>
       <c r="G226" s="0">
-        <v>642.39833333333297</v>
+        <v>25.854999999999908</v>
       </c>
       <c r="H226" s="0">
         <v>11</v>
@@ -19245,7 +19245,7 @@
         <v>40</v>
       </c>
       <c r="G230" s="0">
-        <v>376.322857142857</v>
+        <v>84.50166666666648</v>
       </c>
       <c r="H230" s="0">
         <v>8</v>
@@ -19328,7 +19328,7 @@
         <v>26</v>
       </c>
       <c r="G231" s="0">
-        <v>318.52199999999971</v>
+        <v>41.726666666666233</v>
       </c>
       <c r="H231" s="0">
         <v>9</v>
